--- a/Third-Semester/Python/ECOAS/Comentarios.xlsx
+++ b/Third-Semester/Python/ECOAS/Comentarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RICARDO\Desktop\ECOAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Desktop\Code\Third-Semester\Python\ECOAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322E57E3-FFAE-48C0-9335-84014B71DB8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E98D83-2DFA-4109-B57B-4C13A457909C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461323AB-AE85-4FDC-9FC3-C383225862A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{461323AB-AE85-4FDC-9FC3-C383225862A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Aunque conoce del tema y es buena debatiendo en clase. Su actitud desalienta a la clase de participar, lo que dificulta el aprendizaje y el gusto por la materia. El trato hacia con los alumnos es despota e incluso grosero.</t>
   </si>
@@ -85,6 +85,16 @@
   </si>
   <si>
     <t>Rec</t>
+  </si>
+  <si>
+    <t>Ángel Manuel Godoy Aguilar</t>
+  </si>
+  <si>
+    <t>Actuaria</t>
+  </si>
+  <si>
+    <t>Pesimo profesor,falta muchas veces en elcurso y te manda al rincon. pesima ayudante. No sé como es que le siguen dando grupos, no eneña nada, siempre dice si no vienen no lo van a aprender, pero así es todo el semestre, nunca empieza a enseñar algo, luego ni plumón para escribir lleva, si la aydante es ana, olvidenlo se cree superior en cualquier aspecto y no sabe nada.
+Pésimo, no prepara las clases, te manda a que aprendas y todas tus dudas te las resuelva el rincón, la ayudante es aún peor, se cree mucho y es pésima, nunca nunca iba, no avisaba y cuando llegaba a ir solo copiaba las demostraciones del rincón, nunca resolvía dudas porque se nota que no sabe nada</t>
   </si>
 </sst>
 </file>
@@ -467,12 +477,12 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
@@ -563,6 +573,20 @@
         <v>4.7</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
